--- a/testcases/Assignment1_ITPM_TestCases.xlsx
+++ b/testcases/Assignment1_ITPM_TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ITPM_assignment1\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D45D946-CD21-4645-8BB4-8ED2C22D119A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFC37D8-D22F-4822-AC4F-AFDAC5F3B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F7B316D5-E75D-43AF-8836-5B753605AF5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="231">
   <si>
     <t>TC ID</t>
   </si>
@@ -340,18 +340,6 @@
 Accuracy Validation</t>
   </si>
   <si>
-    <t>Verify real-time output update behavior</t>
-  </si>
-  <si>
-    <t>Verify error handling / input validation</t>
-  </si>
-  <si>
-    <t>Pos_UI_002</t>
-  </si>
-  <si>
-    <t>Neg_UI_001</t>
-  </si>
-  <si>
     <t>api labana maasayeedhi hambavemu</t>
   </si>
   <si>
@@ -582,12 +570,6 @@
     <t xml:space="preserve">ඔයා මට එන්න කිව්වේ නෑනේ   </t>
   </si>
   <si>
-    <t>Simple sentence
-Response
-S ( S ≤30 characters) 
-Robustness Validation</t>
-  </si>
-  <si>
     <t>Verify translation of complete english phrase</t>
   </si>
   <si>
@@ -604,12 +586,6 @@
   </si>
   <si>
     <t xml:space="preserve">Intern එකක් set වුනා ද ඔයාට? </t>
-  </si>
-  <si>
-    <t>Word combination
-Simple sentence
-S ( S ≤30 characters) 
-Robustness Validation</t>
   </si>
   <si>
     <t>oyaage student id ekee copy ekak dhunnaa needha eyaalata?</t>
@@ -681,25 +657,210 @@
     <t>ඔයාගෙ gpa එක කීයද?</t>
   </si>
   <si>
+    <t>Verify translation of english short form</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system correctly converts common english words.
+Sinhala spelling and punctuation are correct. 
+</t>
+  </si>
+  <si>
+    <t>No spelling or formatting issues observed.
+Positive form of the sentence is preserved.</t>
+  </si>
+  <si>
+    <t>No spelling or formatting issues observed.
+Negative form of the sentence is preserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinhala spelling and punctuation are correct. 
+Informal phrasing of the sentence is preserved. </t>
+  </si>
+  <si>
+    <t>Simple, frequently used daily expression translated correctly. 
+Spelling and sentence meaning preserved</t>
+  </si>
+  <si>
+    <t>Frequent collocation correctly translated. 
+Word combination preserved.
+ Spelling and meaning accurate</t>
+  </si>
+  <si>
+    <t>Repeated word expressions for emphasis preserved. Spelling and sentence meaning correct</t>
+  </si>
+  <si>
+    <t>Future tense accurately translated. 
+Meaning, tense, and spelling preserved</t>
+  </si>
+  <si>
+    <t>Negation and punctuation correctly handled.
+Mixed punctuation preserved. 
+Sentence meaning accurate</t>
+  </si>
+  <si>
+    <t>Singular usage translated correctly. 
+Pronoun and sentence meaning preserved</t>
+  </si>
+  <si>
+    <t>Request sentence translated with correct politeness and meaning. 
+Spelling and punctuation correct</t>
+  </si>
+  <si>
+    <t>English technical/brand terms embedded in Singlish preserved correctly. 
+Sentence meaning accurate</t>
+  </si>
+  <si>
+    <t>Common English words translated accurately. 
+Spelling, punctuation, and sentence meaning preserved.</t>
+  </si>
+  <si>
+    <t>English abbreviations and short forms preserved correctly.
+Mixed Singlish + English handled accurately</t>
+  </si>
+  <si>
+    <t>Punctuation marks correctly handled. 
+Complex sentence structure maintained. 
+Meaning preserved</t>
+  </si>
+  <si>
+    <t>Multiple spaces, line breaks, and paragraphs correctly preserved. 
+Sentence meaning and spacing maintained</t>
+  </si>
+  <si>
+    <t>Slang and colloquial phrasing translated accurately. 
+Sentence meaning and informal tone preserved.</t>
+  </si>
+  <si>
+    <t>Common English words and names/places correctly translated. 
+Interrogative sentence preserved.</t>
+  </si>
+  <si>
+    <t>Simple sentence translated correctly. 
+Meaning, spelling, and punctuation preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The greeting meaning is preserved.
+Spelling and punctuation correct.
+</t>
+  </si>
+  <si>
+    <t>Slang/Informal sentence translated correctly. 
+Meaning and spelling preserved</t>
+  </si>
+  <si>
+    <t>Mixed Singlish + English sentence translated accurately. 
+Technical terms preserved.</t>
+  </si>
+  <si>
+    <t>Time formats correctly preserved. 
+Spelling, punctuation, and sentence meaning accurate.</t>
+  </si>
+  <si>
+    <t>Units of measurement translated correctly. 
+Sentence meaning and spelling preserved</t>
+  </si>
+  <si>
+    <t>Incorrect conversion of floor numbers and building names. 
+Mixed English-Sinhala formatting issues observed. 
+Meaning partially altered.</t>
+  </si>
+  <si>
+    <t>Currency name misspelled. 
+Spelling and transliteration issues observed. 
+Meaning altered.</t>
+  </si>
+  <si>
+    <t>English phrase incorrectly translated. 
+Pronoun issue; meaning partially lost.</t>
+  </si>
+  <si>
+    <t>Multiple English sentences incorrectly translated. 
+Spelling and meaning partially lost. 
+Sentence structure broken</t>
+  </si>
+  <si>
+    <t>Missing spaces in output; words concatenated. Sentence meaning somewhat understandable but formatting incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common English word not preserved. </t>
+  </si>
+  <si>
+    <t>Mixed Singlish + English incorrectly converted. 
+Pronoun 'id' mis-transliterated. 
+Meaning affected</t>
+  </si>
+  <si>
+    <t>Short form 'cgpa' transliterated incorrectly. 
+Mixed English/Sinhala formatting issue; meaning affected.</t>
+  </si>
+  <si>
+    <t>Popup opens correctly. 
+Real-time output behavior preserved as expected.</t>
+  </si>
+  <si>
+    <t>English phrase is not preserved.
+Meaning affected.</t>
+  </si>
+  <si>
+    <t>Informal english term not preserved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vidheesha katayuthu, vidheesha raekiyaa saha sQQchaaraka amaathYA vijitha heerath mahathaa saha shrii lQQkaa sQQchaaraka sQQvarDhana vaedasatahana kriyaathmaka kiriima saDHAhaa vuu janaaDhipathi kaaryAsaaDhaka balakaayee saamaajikayan athara hamuvak janaaDhipathi kaaryaalayeedhii adha (30) peravaruvee paevaethviNi.
+meratata paemiNena vidheeshiiya sQQchaarakayanta naeraBum sThaanavalata pivisiima pahasu vanu piNisa dijital praveesha pathrayak hadhunvaa dhiimee kriyaavaliyehi labaa aethi pragathiya menma sQQchaarakayangee viisaa sambanDha katayuthu kadinamin sidhu kiriima kerehith mema saakachChaaveedhii avaDhaanaya yomu keriNi.
+</t>
+  </si>
+  <si>
+    <t>Verify translation of Paragraph-style input (long)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Simple sentence
+Response
+S ( ≤30 characters) 
+Robustness Validation</t>
+  </si>
+  <si>
+    <t>Word combination
+Simple sentence
+S ( ≤30 characters) 
+Robustness Validation</t>
+  </si>
+  <si>
+    <t>Mixed Singlish + English
+Simple sentence
+S ( ≤30 characters) 
+Robustness Validation</t>
+  </si>
+  <si>
     <t>Daily language usage
 Pronoun variation
-S ( S ≤30 characters) 
-Robustness Validation</t>
-  </si>
-  <si>
-    <t>Verify translation of english short form</t>
-  </si>
-  <si>
-    <t>Mixed Singlish + English
-Simple sentence
-S ( S ≤30 characters) 
+S (  ≤30 characters) 
 Robustness Validation</t>
   </si>
   <si>
     <t>Common english words
 Simple sentence
-S ( S ≤30 characters) 
+S ( ≤30 characters) 
 Robustness Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">විදේශ කටයුතු, විදේශ රැකියා සහ සංචාරක අමාත්‍ය විජිත හේරත් මහතා සහ ශ්‍රී ලංකා සංචාරක සංවර්ධන වැඩසටහන ක්‍රියාත්මක කිරීම සඳහා වූ ජනාධිපති කාර්යසාධක බලකායේ සාමාජිකයන් අතර හමුවක් ජනාධිපති කාර්යාලයේදී අද (30) පෙරවරුවේ පැවැත්විණි.
+මෙරටට පැමිණෙන විදේශීය සංචාරකයන්ට නැරඹුම් ස්ථානවලට පිවිසීම පහසු වනු පිණිස ඩිජිටල් ප්‍රවේශ පත්‍රයක් හදුන්වා දීමේ ක්‍රියාවලියෙහි ලබා ඇති ප්‍රගතිය මෙන්ම සංචාරකයන්ගේ වීසා සම්බන්ධ කටයුතු කඩිනමින් සිදු කිරීම කෙරෙහිත් මෙම සාකච්ඡාවේදී අවධානය යොමු කෙරිණි.
+</t>
+  </si>
+  <si>
+    <t>The system correctly converts the Singlish content into Sinhala while preserving the intended meaning.</t>
+  </si>
+  <si>
+    <t>Singlish/ Numbers
+Complex Sentence
+L (≥300 characters)
+Accuracy Validation</t>
   </si>
 </sst>
 </file>
@@ -749,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -775,6 +936,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBEE6B5-E899-4DF9-9930-140114D9CA7C}">
-  <dimension ref="A2:K76"/>
+  <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,11 +1288,14 @@
     <col min="5" max="5" width="32.1796875" customWidth="1"/>
     <col min="6" max="6" width="29.1796875" customWidth="1"/>
     <col min="7" max="7" width="44.08984375" customWidth="1"/>
-    <col min="9" max="9" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1349,9 @@
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1395,9 @@
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1441,9 @@
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1301,7 +1474,9 @@
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1345,7 +1520,9 @@
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1389,7 +1566,9 @@
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>53</v>
       </c>
@@ -1433,6 +1612,9 @@
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="J15" s="2" t="s">
         <v>90</v>
       </c>
@@ -1458,26 +1640,28 @@
         <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="J17" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -1502,26 +1686,28 @@
         <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="J19" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -1546,26 +1732,28 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="J21" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1577,25 +1765,28 @@
         <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I23" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="J23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
@@ -1606,25 +1797,28 @@
         <v>67</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="I25" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="J25" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -1635,25 +1829,28 @@
         <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I27" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="J27" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -1664,28 +1861,39 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I29" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="J29" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>15</v>
       </c>
@@ -1693,639 +1901,720 @@
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I31" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="J31" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I33" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="J33" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I35" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I37" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="J37" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>19</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>19</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="2" t="s">
+    </row>
+    <row r="45" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>20</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>21</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="2" t="s">
+      <c r="I45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>22</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I47" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="J47" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>23</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="51" spans="1:11" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>24</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+      <c r="I51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>25</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="D53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>26</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="3"/>
+      <c r="I53" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="J53" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>106</v>
+        <v>59</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I55" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="J55" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="K55" s="3"/>
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I57" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="J57" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I59" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="J59" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>29</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>30</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="G63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>31</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>15</v>
+      <c r="I63" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I65" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="J65" s="2" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>181</v>
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I67" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="J67" s="2" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I69" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="J69" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>34</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
         <v>35</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="I74" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
-        <v>36</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
-        <v>37</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>92</v>
-      </c>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcases/Assignment1_ITPM_TestCases.xlsx
+++ b/testcases/Assignment1_ITPM_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ITPM_assignment1\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFC37D8-D22F-4822-AC4F-AFDAC5F3B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F0F0F3-D616-4180-9977-6392E93AE96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F7B316D5-E75D-43AF-8836-5B753605AF5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="232">
   <si>
     <t>TC ID</t>
   </si>
@@ -861,6 +861,9 @@
 Complex Sentence
 L (≥300 characters)
 Accuracy Validation</t>
+  </si>
+  <si>
+    <t>Pos_Fun_025</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBEE6B5-E899-4DF9-9930-140114D9CA7C}">
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1927,10 +1930,10 @@
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>124</v>
@@ -1959,10 +1962,10 @@
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>132</v>
@@ -1991,10 +1994,10 @@
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>135</v>
@@ -2023,10 +2026,10 @@
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>141</v>
@@ -2055,10 +2058,10 @@
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>145</v>
@@ -2087,10 +2090,10 @@
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>146</v>
@@ -2119,10 +2122,10 @@
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>157</v>
@@ -2151,10 +2154,10 @@
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>170</v>
@@ -2183,10 +2186,10 @@
     </row>
     <row r="49" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>171</v>
@@ -2215,10 +2218,10 @@
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>176</v>
@@ -2247,7 +2250,7 @@
     </row>
     <row r="53" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>16</v>
@@ -2283,7 +2286,7 @@
     </row>
     <row r="55" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>62</v>
@@ -2316,7 +2319,7 @@
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>80</v>
@@ -2355,7 +2358,7 @@
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
@@ -2387,7 +2390,7 @@
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
@@ -2419,7 +2422,7 @@
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>83</v>
@@ -2451,7 +2454,7 @@
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>60</v>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>84</v>
@@ -2515,7 +2518,7 @@
     </row>
     <row r="69" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>85</v>
@@ -2547,7 +2550,7 @@
     </row>
     <row r="71" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>86</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="74" spans="1:10" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>27</v>

--- a/testcases/Assignment1_ITPM_TestCases.xlsx
+++ b/testcases/Assignment1_ITPM_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ITPM_assignment1\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F0F0F3-D616-4180-9977-6392E93AE96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD5B77-3D65-42CE-99B4-8139507F3D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F7B316D5-E75D-43AF-8836-5B753605AF5F}"/>
   </bookViews>
@@ -65,18 +65,12 @@
     <t>What is covered by the test</t>
   </si>
   <si>
-    <t>Pos_Fun_001</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>Pos_Fun_002</t>
-  </si>
-  <si>
     <t xml:space="preserve">mama adha uni yanna inne. oyaath ennakoo apith ekka lectures yanna. </t>
   </si>
   <si>
@@ -84,9 +78,6 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>Neg_Fun_001</t>
   </si>
   <si>
     <t xml:space="preserve">oyaa main building 7th floor ekata gihin LIC va hambavelaa new building ekee 2nd floor ekata ikmanatama enna. </t>
@@ -106,9 +97,6 @@
   </si>
   <si>
     <t>මේ පාර විභාගය ඔයාට හොඳටම කරන්න පුලුවන්</t>
-  </si>
-  <si>
-    <t>Pos_Fun_003</t>
   </si>
   <si>
     <t>Daily language usage
@@ -127,9 +115,6 @@
 Simple sentence
 M (31-299 characters)
 Accuracy Validation</t>
-  </si>
-  <si>
-    <t>Pos_UI_001</t>
   </si>
   <si>
     <t>Verify 'Help' opens up the 'Singlish Character Mapping' popup</t>
@@ -160,9 +145,6 @@
 </t>
   </si>
   <si>
-    <t>Pos_Fun_004</t>
-  </si>
-  <si>
     <t>anee mee! oyaa ehema kivvaa kiyalaa mata eeka karanna baee.</t>
   </si>
   <si>
@@ -175,9 +157,6 @@
 Accuracy Validation</t>
   </si>
   <si>
-    <t>Pos_Fun_005</t>
-  </si>
-  <si>
     <t>mama adha udhenma avadhi vunaa</t>
   </si>
   <si>
@@ -208,9 +187,6 @@
     <t>Verify  translation of simple frequently used day-to-day expressions</t>
   </si>
   <si>
-    <t>Pos_Fun_006</t>
-  </si>
-  <si>
     <t>eeka harima lassanayi nee</t>
   </si>
   <si>
@@ -223,9 +199,6 @@
 Accuracy Validation</t>
   </si>
   <si>
-    <t>Pos_Fun_007</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify translation of frequent collocations </t>
   </si>
   <si>
@@ -239,9 +212,6 @@
   </si>
   <si>
     <t>මම මේ sem එකෙත් කොහොමහරි deans' list එකට select වෙනවා</t>
-  </si>
-  <si>
-    <t>Neg_Fun_007</t>
   </si>
   <si>
     <t>Formatting (spaces / line breaks / paragraph)
@@ -250,81 +220,6 @@
 Accuracy Validation</t>
   </si>
   <si>
-    <t>Neg_Fun_002</t>
-  </si>
-  <si>
-    <t>Pos_Fun_008</t>
-  </si>
-  <si>
-    <t>Pos_Fun_009</t>
-  </si>
-  <si>
-    <t>Pos_Fun_010</t>
-  </si>
-  <si>
-    <t>Pos_Fun_011</t>
-  </si>
-  <si>
-    <t>Pos_Fun_012</t>
-  </si>
-  <si>
-    <t>Pos_Fun_013</t>
-  </si>
-  <si>
-    <t>Pos_Fun_014</t>
-  </si>
-  <si>
-    <t>Pos_Fun_015</t>
-  </si>
-  <si>
-    <t>Pos_Fun_016</t>
-  </si>
-  <si>
-    <t>Pos_Fun_017</t>
-  </si>
-  <si>
-    <t>Pos_Fun_018</t>
-  </si>
-  <si>
-    <t>Pos_Fun_019</t>
-  </si>
-  <si>
-    <t>Pos_Fun_020</t>
-  </si>
-  <si>
-    <t>Pos_Fun_021</t>
-  </si>
-  <si>
-    <t>Pos_Fun_022</t>
-  </si>
-  <si>
-    <t>Pos_Fun_023</t>
-  </si>
-  <si>
-    <t>Pos_Fun_024</t>
-  </si>
-  <si>
-    <t>Neg_Fun_003</t>
-  </si>
-  <si>
-    <t>Neg_Fun_004</t>
-  </si>
-  <si>
-    <t>Neg_Fun_005</t>
-  </si>
-  <si>
-    <t>Neg_Fun_006</t>
-  </si>
-  <si>
-    <t>Neg_Fun_008</t>
-  </si>
-  <si>
-    <t>Neg_Fun_009</t>
-  </si>
-  <si>
-    <t>Neg_Fun_010</t>
-  </si>
-  <si>
     <t>vaessa himin himin mee paeththatath enavaa vagee nee</t>
   </si>
   <si>
@@ -863,7 +758,112 @@
 Accuracy Validation</t>
   </si>
   <si>
-    <t>Pos_Fun_025</t>
+    <t>Pos_Fun_0001</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0002</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0003</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0004</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0005</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0006</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0007</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0008</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0009</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0010</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0011</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0012</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0013</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0014</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0015</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0016</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0017</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0018</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0019</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0020</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0021</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0022</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0023</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0024</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0025</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0001</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0002</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0003</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0004</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0005</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0006</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0007</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0008</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0009</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0010</t>
+  </si>
+  <si>
+    <t>Pos_UI_0001</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +897,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -942,6 +948,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,13 +1291,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBEE6B5-E899-4DF9-9930-140114D9CA7C}">
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.1796875" customWidth="1"/>
@@ -1297,7 +1309,7 @@
   <sheetData>
     <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -1332,31 +1344,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3"/>
     </row>
@@ -1378,31 +1390,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -1424,31 +1436,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -1457,31 +1469,31 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -1503,31 +1515,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1549,31 +1561,31 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -1595,31 +1607,31 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1640,31 +1652,31 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -1686,31 +1698,31 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -1732,31 +1744,31 @@
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1765,31 +1777,31 @@
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
@@ -1797,31 +1809,31 @@
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -1829,31 +1841,31 @@
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -1861,31 +1873,31 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1901,31 +1913,31 @@
         <v>15</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -1933,31 +1945,31 @@
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
@@ -1965,31 +1977,31 @@
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -1997,31 +2009,31 @@
         <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2029,31 +2041,31 @@
         <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2061,31 +2073,31 @@
         <v>20</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2093,31 +2105,31 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2125,31 +2137,31 @@
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2157,31 +2169,31 @@
         <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2189,31 +2201,31 @@
         <v>24</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2221,31 +2233,31 @@
         <v>25</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2253,31 +2265,31 @@
         <v>26</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="G53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="K53" s="3"/>
     </row>
@@ -2289,31 +2301,31 @@
         <v>27</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K55" s="3"/>
     </row>
@@ -2322,31 +2334,31 @@
         <v>28</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -2361,31 +2373,31 @@
         <v>29</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2393,31 +2405,31 @@
         <v>30</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2425,31 +2437,31 @@
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2457,31 +2469,31 @@
         <v>32</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2489,31 +2501,31 @@
         <v>33</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2521,31 +2533,31 @@
         <v>34</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2553,31 +2565,31 @@
         <v>35</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="J71" s="2" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -2585,28 +2597,28 @@
         <v>36</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
